--- a/xls2conf/template.xlsx
+++ b/xls2conf/template.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="_output" sheetId="1" r:id="rId1"/>
     <sheet name="_conf" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,18 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a.o_xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.o_xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.o_ini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -52,27 +40,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xml_prefix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ini_prefix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我是中文啊啊啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>output_forbid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四个字段.o_ini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xmlprefix</t>
+    <t>a.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.ini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outconf_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outconf_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outconf_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.ini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.o_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.o_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四个字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.o_2.o_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,28 +430,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -471,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -486,7 +495,7 @@
       </c>
       <c r="D4" s="1">
         <f ca="1">NOW()</f>
-        <v>41130.845394097225</v>
+        <v>41136.470892708334</v>
       </c>
     </row>
   </sheetData>
@@ -500,18 +509,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -519,16 +531,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/xls2conf/template.xlsx
+++ b/xls2conf/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_output" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,30 +41,6 @@
   </si>
   <si>
     <t>我是中文啊啊啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.ini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outconf_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outconf_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outconf_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.ini</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -430,7 +406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -443,16 +419,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -495,7 +471,7 @@
       </c>
       <c r="D4" s="1">
         <f ca="1">NOW()</f>
-        <v>41136.470892708334</v>
+        <v>41136.48384479167</v>
       </c>
     </row>
   </sheetData>
@@ -507,10 +483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -526,30 +502,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls2conf/template.xlsx
+++ b/xls2conf/template.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="_output" sheetId="1" r:id="rId1"/>
-    <sheet name="_conf" sheetId="2" r:id="rId2"/>
+    <sheet name="_output_2" sheetId="3" r:id="rId1"/>
+    <sheet name="_output" sheetId="1" r:id="rId2"/>
+    <sheet name="_conf" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,19 +45,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a.o_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.o_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第四个字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c.o_2.o_3</t>
+    <t>outconf_ini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmp.ini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outconf_xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmp.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.o_ini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.o_xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.o_xml.o_ini</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -419,59 +436,198 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <f ca="1">NOW()</f>
-        <v>41136.48384479167</v>
+        <v>102</v>
+      </c>
+      <c r="D4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>103</v>
+      </c>
+      <c r="D5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6">
+        <v>104</v>
+      </c>
+      <c r="C6">
+        <v>104</v>
+      </c>
+      <c r="D6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>105</v>
+      </c>
+      <c r="D7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>106</v>
+      </c>
+      <c r="B8">
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>106</v>
+      </c>
+      <c r="D8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>107</v>
+      </c>
+      <c r="B9">
+        <v>107</v>
+      </c>
+      <c r="C9">
+        <v>107</v>
+      </c>
+      <c r="D9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>108</v>
+      </c>
+      <c r="B10">
+        <v>108</v>
+      </c>
+      <c r="C10">
+        <v>108</v>
+      </c>
+      <c r="D10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <v>109</v>
+      </c>
+      <c r="C11">
+        <v>109</v>
+      </c>
+      <c r="D11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>110</v>
+      </c>
+      <c r="D12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>111</v>
+      </c>
+      <c r="B13">
+        <v>111</v>
+      </c>
+      <c r="C13">
+        <v>111</v>
+      </c>
+      <c r="D13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>112</v>
+      </c>
+      <c r="B14">
+        <v>112</v>
+      </c>
+      <c r="C14">
+        <v>112</v>
+      </c>
+      <c r="D14">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -483,10 +639,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f ca="1">NOW()</f>
+        <v>41219.697437847222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -502,6 +737,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
